--- a/financial_news.xlsx
+++ b/financial_news.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6ACFA20-B7B9-D743-8449-748AA18671B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC6D0332-9FAC-9548-8234-D38A1A6F8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,10 +299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -310,8 +318,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -560,7 +572,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -576,7 +588,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -592,7 +604,7 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -612,7 +624,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -632,7 +644,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -652,7 +664,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -672,7 +684,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -692,7 +704,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -712,7 +724,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -732,7 +744,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -752,7 +764,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -772,7 +784,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1779,6 +1791,20 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A1C702C3-8941-654F-9759-1CD3A7B3666C}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{FE8F69BA-90D1-714C-830D-CD7B9ECD7A11}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{6F9CD6F7-9929-744C-A871-75F30C3EE3A3}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{E4D5DB38-C278-E744-A662-44D42C89B747}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{AD452E75-4674-6E4C-A12B-58FAD9A330CE}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{DD6D25B9-98B3-8E41-BC92-F4582DD7F31B}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{AFEF04A1-B934-634C-B8EE-4976B88C580A}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{0B94130E-8C88-8C43-9B7A-5C9EEBB75418}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{FA17E2CA-77A5-074C-A861-286C287BE31A}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{A1C112D1-F6B1-D240-9B3A-DE9E55BFF702}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{21258BF0-79E9-DA43-AE23-781F2C18F564}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{62981DB6-BF28-774B-ADB5-3353D2547A7A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
